--- a/artfynd/A 36208-2023.xlsx
+++ b/artfynd/A 36208-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91796635</v>
+        <v>91796644</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514795.5238033807</v>
+        <v>514954.3004640888</v>
       </c>
       <c r="R2" t="n">
-        <v>7040969.309156247</v>
+        <v>7041066.084318623</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91796644</v>
+        <v>91796635</v>
       </c>
       <c r="B3" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,25 +820,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514954.3004640888</v>
+        <v>514795.5238033807</v>
       </c>
       <c r="R3" t="n">
-        <v>7041066.084318623</v>
+        <v>7040969.309156247</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>

--- a/artfynd/A 36208-2023.xlsx
+++ b/artfynd/A 36208-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91796644</v>
+        <v>91796635</v>
       </c>
       <c r="B2" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514954.3004640888</v>
+        <v>514795.5238033807</v>
       </c>
       <c r="R2" t="n">
-        <v>7041066.084318623</v>
+        <v>7040969.309156247</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91796635</v>
+        <v>91796644</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,25 +820,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514795.5238033807</v>
+        <v>514954.3004640888</v>
       </c>
       <c r="R3" t="n">
-        <v>7040969.309156247</v>
+        <v>7041066.084318623</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
